--- a/output/excel/porownanie_krajow.xlsx
+++ b/output/excel/porownanie_krajow.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Population Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Population Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1985</v>
+        <v>1968</v>
       </c>
       <c r="E2" t="n">
-        <v>11938208</v>
+        <v>25989</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,2052 +498,3792 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="E3" t="n">
-        <v>11736179</v>
+        <v>26703</v>
       </c>
       <c r="F3" t="n">
-        <v>-202029</v>
+        <v>714</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.692289160986304</v>
+        <v>2.747316172226721</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1987</v>
+        <v>1970</v>
       </c>
       <c r="E4" t="n">
-        <v>11604534</v>
+        <v>27363</v>
       </c>
       <c r="F4" t="n">
-        <v>-131645</v>
+        <v>660</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.121702387122758</v>
+        <v>2.47163240085384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1988</v>
+        <v>1971</v>
       </c>
       <c r="E5" t="n">
-        <v>11618005</v>
+        <v>27984</v>
       </c>
       <c r="F5" t="n">
-        <v>13471</v>
+        <v>621</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1160839375368372</v>
+        <v>2.269487994737429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="E6" t="n">
-        <v>11868877</v>
+        <v>28567</v>
       </c>
       <c r="F6" t="n">
-        <v>250872</v>
+        <v>583</v>
       </c>
       <c r="G6" t="n">
-        <v>2.15933802748407</v>
+        <v>2.083333333333326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1990</v>
+        <v>1973</v>
       </c>
       <c r="E7" t="n">
-        <v>12412308</v>
+        <v>29100</v>
       </c>
       <c r="F7" t="n">
-        <v>543431</v>
+        <v>533</v>
       </c>
       <c r="G7" t="n">
-        <v>4.578621886468293</v>
+        <v>1.865789197325585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="E8" t="n">
-        <v>13299017</v>
+        <v>29596</v>
       </c>
       <c r="F8" t="n">
-        <v>886709</v>
+        <v>496</v>
       </c>
       <c r="G8" t="n">
-        <v>7.143788246311655</v>
+        <v>1.704467353951888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="E9" t="n">
-        <v>14485546</v>
+        <v>30052</v>
       </c>
       <c r="F9" t="n">
-        <v>1186529</v>
+        <v>456</v>
       </c>
       <c r="G9" t="n">
-        <v>8.921930094532549</v>
+        <v>1.540748749831056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="E10" t="n">
-        <v>15816603</v>
+        <v>30456</v>
       </c>
       <c r="F10" t="n">
-        <v>1331057</v>
+        <v>404</v>
       </c>
       <c r="G10" t="n">
-        <v>9.188863160560178</v>
+        <v>1.344336483428732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="E11" t="n">
-        <v>17075727</v>
+        <v>30838</v>
       </c>
       <c r="F11" t="n">
-        <v>1259124</v>
+        <v>382</v>
       </c>
       <c r="G11" t="n">
-        <v>7.960773877930682</v>
+        <v>1.254268452850016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="E12" t="n">
-        <v>18110657</v>
+        <v>31269</v>
       </c>
       <c r="F12" t="n">
-        <v>1034930</v>
+        <v>431</v>
       </c>
       <c r="G12" t="n">
-        <v>6.060825404388348</v>
+        <v>1.397626305207855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="E13" t="n">
-        <v>18853437</v>
+        <v>31845</v>
       </c>
       <c r="F13" t="n">
-        <v>742780</v>
+        <v>576</v>
       </c>
       <c r="G13" t="n">
-        <v>4.101342099295469</v>
+        <v>1.842080015350667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="E14" t="n">
-        <v>19357126</v>
+        <v>32646</v>
       </c>
       <c r="F14" t="n">
-        <v>503689</v>
+        <v>801</v>
       </c>
       <c r="G14" t="n">
-        <v>2.671603061022765</v>
+        <v>2.515308525671212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="E15" t="n">
-        <v>19737765</v>
+        <v>33701</v>
       </c>
       <c r="F15" t="n">
-        <v>380639</v>
+        <v>1055</v>
       </c>
       <c r="G15" t="n">
-        <v>1.966402450446414</v>
+        <v>3.231636341358812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="E16" t="n">
-        <v>20170844</v>
+        <v>34968</v>
       </c>
       <c r="F16" t="n">
-        <v>433079</v>
+        <v>1267</v>
       </c>
       <c r="G16" t="n">
-        <v>2.19416433420907</v>
+        <v>3.759532358090256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="E17" t="n">
-        <v>20779953</v>
+        <v>36412</v>
       </c>
       <c r="F17" t="n">
-        <v>609109</v>
+        <v>1444</v>
       </c>
       <c r="G17" t="n">
-        <v>3.019749694162521</v>
+        <v>4.129489819263332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="E18" t="n">
-        <v>21606988</v>
+        <v>37946</v>
       </c>
       <c r="F18" t="n">
-        <v>827035</v>
+        <v>1534</v>
       </c>
       <c r="G18" t="n">
-        <v>3.979965690971476</v>
+        <v>4.212896847193237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="E19" t="n">
-        <v>22600770</v>
+        <v>39519</v>
       </c>
       <c r="F19" t="n">
-        <v>993782</v>
+        <v>1573</v>
       </c>
       <c r="G19" t="n">
-        <v>4.599354616201023</v>
+        <v>4.145364465292789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="E20" t="n">
-        <v>23680871</v>
+        <v>41119</v>
       </c>
       <c r="F20" t="n">
-        <v>1080101</v>
+        <v>1600</v>
       </c>
       <c r="G20" t="n">
-        <v>4.779045138727578</v>
+        <v>4.04868544244541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="E21" t="n">
-        <v>24726684</v>
+        <v>42740</v>
       </c>
       <c r="F21" t="n">
-        <v>1045813</v>
+        <v>1621</v>
       </c>
       <c r="G21" t="n">
-        <v>4.416277593843576</v>
+        <v>3.942216493591766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="E22" t="n">
-        <v>25654277</v>
+        <v>44343</v>
       </c>
       <c r="F22" t="n">
-        <v>927593</v>
+        <v>1603</v>
       </c>
       <c r="G22" t="n">
-        <v>3.751384536640656</v>
+        <v>3.75058493214786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="E23" t="n">
-        <v>26433049</v>
+        <v>45894</v>
       </c>
       <c r="F23" t="n">
-        <v>778772</v>
+        <v>1551</v>
       </c>
       <c r="G23" t="n">
-        <v>3.035641971122405</v>
+        <v>3.49773357688925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="E24" t="n">
-        <v>27100536</v>
+        <v>47347</v>
       </c>
       <c r="F24" t="n">
-        <v>667487</v>
+        <v>1453</v>
       </c>
       <c r="G24" t="n">
-        <v>2.525198663234041</v>
+        <v>3.165991197106366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="E25" t="n">
-        <v>27722276</v>
+        <v>48685</v>
       </c>
       <c r="F25" t="n">
-        <v>621740</v>
+        <v>1338</v>
       </c>
       <c r="G25" t="n">
-        <v>2.294198166412653</v>
+        <v>2.825944621623333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="E26" t="n">
-        <v>6666447</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>49896</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.487419122933132</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E27" t="n">
-        <v>6778624</v>
+        <v>51020</v>
       </c>
       <c r="F27" t="n">
-        <v>112177</v>
+        <v>1124</v>
       </c>
       <c r="G27" t="n">
-        <v>1.682710445309166</v>
+        <v>2.252685586018921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="E28" t="n">
-        <v>6893489</v>
+        <v>52095</v>
       </c>
       <c r="F28" t="n">
-        <v>114865</v>
+        <v>1075</v>
       </c>
       <c r="G28" t="n">
-        <v>1.694517943464624</v>
+        <v>2.107016856134858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="E29" t="n">
-        <v>7010027</v>
+        <v>53161</v>
       </c>
       <c r="F29" t="n">
-        <v>116538</v>
+        <v>1066</v>
       </c>
       <c r="G29" t="n">
-        <v>1.690551765586346</v>
+        <v>2.046261637393232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="E30" t="n">
-        <v>7126881</v>
+        <v>54211</v>
       </c>
       <c r="F30" t="n">
-        <v>116854</v>
+        <v>1050</v>
       </c>
       <c r="G30" t="n">
-        <v>1.666955063083209</v>
+        <v>1.975132145745939</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="E31" t="n">
-        <v>7159000</v>
+        <v>55221</v>
       </c>
       <c r="F31" t="n">
-        <v>32119</v>
+        <v>1010</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4506740045189472</v>
+        <v>1.863090516684807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E32" t="n">
-        <v>7271000</v>
+        <v>56171</v>
       </c>
       <c r="F32" t="n">
-        <v>112000</v>
+        <v>950</v>
       </c>
       <c r="G32" t="n">
-        <v>1.564464310657909</v>
+        <v>1.72036000796798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="E33" t="n">
-        <v>7382000</v>
+        <v>57053</v>
       </c>
       <c r="F33" t="n">
-        <v>111000</v>
+        <v>882</v>
       </c>
       <c r="G33" t="n">
-        <v>1.526612570485497</v>
+        <v>1.570205266062552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E34" t="n">
-        <v>7495000</v>
+        <v>57821</v>
       </c>
       <c r="F34" t="n">
-        <v>113000</v>
+        <v>768</v>
       </c>
       <c r="G34" t="n">
-        <v>1.530750474126252</v>
+        <v>1.346116768618644</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E35" t="n">
-        <v>7597000</v>
+        <v>58494</v>
       </c>
       <c r="F35" t="n">
-        <v>102000</v>
+        <v>673</v>
       </c>
       <c r="G35" t="n">
-        <v>1.360907271514344</v>
+        <v>1.163936977914592</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="E36" t="n">
-        <v>7685000</v>
+        <v>59080</v>
       </c>
       <c r="F36" t="n">
-        <v>88000</v>
+        <v>586</v>
       </c>
       <c r="G36" t="n">
-        <v>1.158351981045147</v>
+        <v>1.001812151673676</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="E37" t="n">
-        <v>7763000</v>
+        <v>59504</v>
       </c>
       <c r="F37" t="n">
-        <v>78000</v>
+        <v>424</v>
       </c>
       <c r="G37" t="n">
-        <v>1.014964216005199</v>
+        <v>0.7176709546377724</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E38" t="n">
-        <v>7838250</v>
+        <v>59681</v>
       </c>
       <c r="F38" t="n">
-        <v>75250</v>
+        <v>177</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9693417493237044</v>
+        <v>0.2974589943533168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E39" t="n">
-        <v>7913000</v>
+        <v>59562</v>
       </c>
       <c r="F39" t="n">
-        <v>74750</v>
+        <v>-119</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9536567473606983</v>
+        <v>-0.1993934417989007</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E40" t="n">
-        <v>7982750</v>
+        <v>59107</v>
       </c>
       <c r="F40" t="n">
-        <v>69750</v>
+        <v>-455</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8814608871477336</v>
+        <v>-0.7639098754239293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="E41" t="n">
-        <v>8048600</v>
+        <v>58365</v>
       </c>
       <c r="F41" t="n">
-        <v>65850</v>
+        <v>-742</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8249036986001101</v>
+        <v>-1.255350466103844</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E42" t="n">
-        <v>8111200</v>
+        <v>57492</v>
       </c>
       <c r="F42" t="n">
-        <v>62600</v>
+        <v>-873</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7777750167730968</v>
+        <v>-1.49575944487278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E43" t="n">
-        <v>8171950</v>
+        <v>56683</v>
       </c>
       <c r="F43" t="n">
-        <v>60750</v>
+        <v>-809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.748964394910745</v>
+        <v>-1.407152299450354</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E44" t="n">
-        <v>8234100</v>
+        <v>56079</v>
       </c>
       <c r="F44" t="n">
-        <v>62150</v>
+        <v>-604</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7605283928560524</v>
+        <v>-1.065575216555226</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="E45" t="n">
-        <v>8306500</v>
+        <v>55759</v>
       </c>
       <c r="F45" t="n">
-        <v>72400</v>
+        <v>-320</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8792703513438083</v>
+        <v>-0.5706235845860275</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="E46" t="n">
-        <v>8391850</v>
-      </c>
-      <c r="F46" t="n">
-        <v>85350</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.027508577619929</v>
-      </c>
+        <v>9618756</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="E47" t="n">
-        <v>8484550</v>
+        <v>9646032</v>
       </c>
       <c r="F47" t="n">
-        <v>92700</v>
+        <v>27276</v>
       </c>
       <c r="G47" t="n">
-        <v>1.104643195481336</v>
+        <v>0.283570973211078</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="E48" t="n">
-        <v>8581300</v>
+        <v>9655549</v>
       </c>
       <c r="F48" t="n">
-        <v>96750</v>
+        <v>9517</v>
       </c>
       <c r="G48" t="n">
-        <v>1.140307971548293</v>
+        <v>0.09866233079052211</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2008</v>
+        <v>1971</v>
       </c>
       <c r="E49" t="n">
-        <v>8763400</v>
+        <v>9673162</v>
       </c>
       <c r="F49" t="n">
-        <v>182100</v>
+        <v>17613</v>
       </c>
       <c r="G49" t="n">
-        <v>2.12205609872631</v>
+        <v>0.1824132423749347</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="E50" t="n">
-        <v>7714880</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>9711115</v>
+      </c>
+      <c r="F50" t="n">
+        <v>37953</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3923536068143996</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="E51" t="n">
-        <v>7960949</v>
+        <v>9741720</v>
       </c>
       <c r="F51" t="n">
-        <v>246069</v>
+        <v>30605</v>
       </c>
       <c r="G51" t="n">
-        <v>3.189537620805516</v>
+        <v>0.3151543360365938</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1987</v>
+        <v>1974</v>
       </c>
       <c r="E52" t="n">
-        <v>8198082</v>
+        <v>9772419</v>
       </c>
       <c r="F52" t="n">
-        <v>237133</v>
+        <v>30699</v>
       </c>
       <c r="G52" t="n">
-        <v>2.978702664720001</v>
+        <v>0.3151291558369573</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="E53" t="n">
-        <v>8435912</v>
+        <v>9800700</v>
       </c>
       <c r="F53" t="n">
-        <v>237830</v>
+        <v>28281</v>
       </c>
       <c r="G53" t="n">
-        <v>2.901044415022924</v>
+        <v>0.2893961055087768</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1989</v>
+        <v>1976</v>
       </c>
       <c r="E54" t="n">
-        <v>8691334</v>
+        <v>9818227</v>
       </c>
       <c r="F54" t="n">
-        <v>255422</v>
+        <v>17527</v>
       </c>
       <c r="G54" t="n">
-        <v>3.02779355687921</v>
+        <v>0.1788341649065828</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1990</v>
+        <v>1977</v>
       </c>
       <c r="E55" t="n">
-        <v>8975597</v>
+        <v>9830358</v>
       </c>
       <c r="F55" t="n">
-        <v>284263</v>
+        <v>12131</v>
       </c>
       <c r="G55" t="n">
-        <v>3.270648671423748</v>
+        <v>0.1235559128954788</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="E56" t="n">
-        <v>9289299</v>
+        <v>9839534</v>
       </c>
       <c r="F56" t="n">
-        <v>313702</v>
+        <v>9176</v>
       </c>
       <c r="G56" t="n">
-        <v>3.495054423677879</v>
+        <v>0.09334349776477513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="E57" t="n">
-        <v>9623889</v>
+        <v>9848382</v>
       </c>
       <c r="F57" t="n">
-        <v>334590</v>
+        <v>8848</v>
       </c>
       <c r="G57" t="n">
-        <v>3.601886428674539</v>
+        <v>0.08992295773355696</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="E58" t="n">
-        <v>9970733</v>
+        <v>9859242</v>
       </c>
       <c r="F58" t="n">
-        <v>346844</v>
+        <v>10860</v>
       </c>
       <c r="G58" t="n">
-        <v>3.603990029394555</v>
+        <v>0.1102719208089242</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1994</v>
+        <v>1981</v>
       </c>
       <c r="E59" t="n">
-        <v>10317899</v>
+        <v>9858982</v>
       </c>
       <c r="F59" t="n">
-        <v>347166</v>
+        <v>-260</v>
       </c>
       <c r="G59" t="n">
-        <v>3.481850331364811</v>
+        <v>-0.002637119567605595</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="E60" t="n">
-        <v>10656138</v>
+        <v>9856303</v>
       </c>
       <c r="F60" t="n">
-        <v>338239</v>
+        <v>-2679</v>
       </c>
       <c r="G60" t="n">
-        <v>3.278177078492428</v>
+        <v>-0.02717319090348447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="E61" t="n">
-        <v>10982917</v>
+        <v>9855520</v>
       </c>
       <c r="F61" t="n">
-        <v>326779</v>
+        <v>-783</v>
       </c>
       <c r="G61" t="n">
-        <v>3.066580031151989</v>
+        <v>-0.007944155125916286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="E62" t="n">
-        <v>11298600</v>
+        <v>9855372</v>
       </c>
       <c r="F62" t="n">
-        <v>315683</v>
+        <v>-148</v>
       </c>
       <c r="G62" t="n">
-        <v>2.874309256821306</v>
+        <v>-0.001501696511196915</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E63" t="n">
-        <v>11600508</v>
+        <v>9858308</v>
       </c>
       <c r="F63" t="n">
-        <v>301908</v>
+        <v>2936</v>
       </c>
       <c r="G63" t="n">
-        <v>2.672083266953429</v>
+        <v>0.02979085923899838</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E64" t="n">
-        <v>11886458</v>
+        <v>9861823</v>
       </c>
       <c r="F64" t="n">
-        <v>285950</v>
+        <v>3515</v>
       </c>
       <c r="G64" t="n">
-        <v>2.464978257848705</v>
+        <v>0.03565520574118075</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="E65" t="n">
-        <v>12155239</v>
+        <v>9870234</v>
       </c>
       <c r="F65" t="n">
-        <v>268781</v>
+        <v>8411</v>
       </c>
       <c r="G65" t="n">
-        <v>2.261237115379533</v>
+        <v>0.08528849077904521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E66" t="n">
-        <v>12405408</v>
+        <v>9901664</v>
       </c>
       <c r="F66" t="n">
-        <v>250169</v>
+        <v>31430</v>
       </c>
       <c r="G66" t="n">
-        <v>2.058116668870102</v>
+        <v>0.3184321668564305</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="E67" t="n">
-        <v>12637727</v>
+        <v>9937697</v>
       </c>
       <c r="F67" t="n">
-        <v>232319</v>
+        <v>36033</v>
       </c>
       <c r="G67" t="n">
-        <v>1.872723573460866</v>
+        <v>0.3639085309297574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="E68" t="n">
-        <v>12856163</v>
+        <v>9967379</v>
       </c>
       <c r="F68" t="n">
-        <v>218436</v>
+        <v>29682</v>
       </c>
       <c r="G68" t="n">
-        <v>1.728443730427154</v>
+        <v>0.2986808714332989</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="E69" t="n">
-        <v>13066469</v>
+        <v>10004486</v>
       </c>
       <c r="F69" t="n">
-        <v>210306</v>
+        <v>37107</v>
       </c>
       <c r="G69" t="n">
-        <v>1.635838002365086</v>
+        <v>0.3722844290359628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E70" t="n">
-        <v>13273354</v>
+        <v>10045158</v>
       </c>
       <c r="F70" t="n">
-        <v>206885</v>
+        <v>40672</v>
       </c>
       <c r="G70" t="n">
-        <v>1.583327523296463</v>
+        <v>0.4065376272204269</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E71" t="n">
-        <v>13477709</v>
+        <v>10084475</v>
       </c>
       <c r="F71" t="n">
-        <v>204355</v>
+        <v>39317</v>
       </c>
       <c r="G71" t="n">
-        <v>1.539588260811842</v>
+        <v>0.3914025045698599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="E72" t="n">
-        <v>13679962</v>
+        <v>10115603</v>
       </c>
       <c r="F72" t="n">
-        <v>202253</v>
+        <v>31128</v>
       </c>
       <c r="G72" t="n">
-        <v>1.500648218476885</v>
+        <v>0.3086724891479209</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D73" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10136811</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21208</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.2096563101576798</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10156637</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19826</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1955841930958435</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10181245</v>
+      </c>
+      <c r="F75" t="n">
+        <v>24608</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2422849216723977</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10203008</v>
+      </c>
+      <c r="F76" t="n">
+        <v>21763</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.2137557833054693</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10226419</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23411</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.229451942015535</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10251250</v>
+      </c>
+      <c r="F78" t="n">
+        <v>24831</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.2428122688890477</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10286570</v>
+      </c>
+      <c r="F79" t="n">
+        <v>35320</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.3445433483721505</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10332785</v>
+      </c>
+      <c r="F80" t="n">
+        <v>46215</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4492751228057479</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10376133</v>
+      </c>
+      <c r="F81" t="n">
+        <v>43348</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.4195190357681788</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10421137</v>
+      </c>
+      <c r="F82" t="n">
+        <v>45004</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4337261289923733</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10478617</v>
+      </c>
+      <c r="F83" t="n">
+        <v>57480</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.5515712920768578</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10547958</v>
+      </c>
+      <c r="F84" t="n">
+        <v>69341</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.6617380900552083</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10625700</v>
+      </c>
+      <c r="F85" t="n">
+        <v>77742</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7370336514422871</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>2008</v>
       </c>
-      <c r="E73" t="n">
-        <v>13883834</v>
-      </c>
-      <c r="F73" t="n">
-        <v>203872</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.490296537373426</v>
+      <c r="E86" t="n">
+        <v>10709973</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84273</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.7931053954092437</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10796493</v>
+      </c>
+      <c r="F87" t="n">
+        <v>86520</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8078451738393833</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10895586</v>
+      </c>
+      <c r="F88" t="n">
+        <v>99093</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9178258162164221</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11038264</v>
+      </c>
+      <c r="F89" t="n">
+        <v>142678</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.309502765615367</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E90" t="n">
+        <v>596947</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1969</v>
+      </c>
+      <c r="E91" t="n">
+        <v>611300</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14353</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.404401060730676</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E92" t="n">
+        <v>627715</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16415</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.685260919352195</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E93" t="n">
+        <v>646347</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18632</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.96822602614244</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E94" t="n">
+        <v>667092</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20745</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.209576280233373</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1973</v>
+      </c>
+      <c r="E95" t="n">
+        <v>689912</v>
+      </c>
+      <c r="F95" t="n">
+        <v>22820</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.420817518423247</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E96" t="n">
+        <v>714712</v>
+      </c>
+      <c r="F96" t="n">
+        <v>24800</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.59466134811397</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E97" t="n">
+        <v>741355</v>
+      </c>
+      <c r="F97" t="n">
+        <v>26643</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.72779525179372</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E98" t="n">
+        <v>769979</v>
+      </c>
+      <c r="F98" t="n">
+        <v>28624</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.861038234044423</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E99" t="n">
+        <v>800529</v>
+      </c>
+      <c r="F99" t="n">
+        <v>30550</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.96764067591453</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E100" t="n">
+        <v>832467</v>
+      </c>
+      <c r="F100" t="n">
+        <v>31938</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.989611869151521</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E101" t="n">
+        <v>865075</v>
+      </c>
+      <c r="F101" t="n">
+        <v>32608</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.917032146619626</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E102" t="n">
+        <v>897868</v>
+      </c>
+      <c r="F102" t="n">
+        <v>32793</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3.790769586452036</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E103" t="n">
+        <v>930408</v>
+      </c>
+      <c r="F103" t="n">
+        <v>32540</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.624140742291737</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E104" t="n">
+        <v>962875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>32467</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3.489544371931452</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E105" t="n">
+        <v>996130</v>
+      </c>
+      <c r="F105" t="n">
+        <v>33255</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3.453719330131122</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1031439</v>
+      </c>
+      <c r="F106" t="n">
+        <v>35309</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.544617670384387</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1069582</v>
+      </c>
+      <c r="F107" t="n">
+        <v>38143</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.698037402114918</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1110943</v>
+      </c>
+      <c r="F108" t="n">
+        <v>41361</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3.867024688149212</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1154906</v>
+      </c>
+      <c r="F109" t="n">
+        <v>43963</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3.957268734759567</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1200067</v>
+      </c>
+      <c r="F110" t="n">
+        <v>45161</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3.910361535917217</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1244484</v>
+      </c>
+      <c r="F111" t="n">
+        <v>44417</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.701210015774126</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1286756</v>
+      </c>
+      <c r="F112" t="n">
+        <v>42272</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3.396749174758384</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1326322</v>
+      </c>
+      <c r="F113" t="n">
+        <v>39566</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3.074864232224295</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1363554</v>
+      </c>
+      <c r="F114" t="n">
+        <v>37232</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.807161458529683</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1399110</v>
+      </c>
+      <c r="F115" t="n">
+        <v>35556</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.607597498888925</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1434059</v>
+      </c>
+      <c r="F116" t="n">
+        <v>34949</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.497945122256295</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1469174</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35115</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.448644023711721</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1504730</v>
+      </c>
+      <c r="F118" t="n">
+        <v>35556</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.420135395807432</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1540425</v>
+      </c>
+      <c r="F119" t="n">
+        <v>35695</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.372186372305984</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1575824</v>
+      </c>
+      <c r="F120" t="n">
+        <v>35399</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.298002174724512</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1610264</v>
+      </c>
+      <c r="F121" t="n">
+        <v>34440</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.185523256404265</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1643334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>33070</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.053700511220513</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1674678</v>
+      </c>
+      <c r="F123" t="n">
+        <v>31344</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.907342025419068</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1704642</v>
+      </c>
+      <c r="F124" t="n">
+        <v>29964</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.789239483649996</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1734398</v>
+      </c>
+      <c r="F125" t="n">
+        <v>29756</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.74558646331604</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1765527</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31129</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.794801423894632</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1799078</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33551</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.900339105547522</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1835908</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36830</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.047159711807933</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1875459</v>
+      </c>
+      <c r="F129" t="n">
+        <v>39551</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.154301849548013</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1915639</v>
+      </c>
+      <c r="F130" t="n">
+        <v>40180</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.142408871641566</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1953498</v>
+      </c>
+      <c r="F131" t="n">
+        <v>37859</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.976311820755372</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1987105</v>
+      </c>
+      <c r="F132" t="n">
+        <v>33607</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.720349854466185</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2015402</v>
+      </c>
+      <c r="F133" t="n">
+        <v>28297</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.424031442726981</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/porownanie_krajow.xlsx
+++ b/output/excel/porownanie_krajow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E2" t="n">
-        <v>11618005</v>
+        <v>56758521</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,1791 +498,1704 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="E3" t="n">
-        <v>11868877</v>
+        <v>56797087</v>
       </c>
       <c r="F3" t="n">
-        <v>250872</v>
+        <v>38566</v>
       </c>
       <c r="G3" t="n">
-        <v>2.15933802748407</v>
+        <v>0.06794750694789631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="E4" t="n">
-        <v>12412308</v>
+        <v>56831821</v>
       </c>
       <c r="F4" t="n">
-        <v>543431</v>
+        <v>34734</v>
       </c>
       <c r="G4" t="n">
-        <v>4.578621886468293</v>
+        <v>0.06115454477444437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="E5" t="n">
-        <v>13299017</v>
+        <v>56843400</v>
       </c>
       <c r="F5" t="n">
-        <v>886709</v>
+        <v>11579</v>
       </c>
       <c r="G5" t="n">
-        <v>7.143788246311655</v>
+        <v>0.0203741491936249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E6" t="n">
-        <v>14485546</v>
+        <v>56844303</v>
       </c>
       <c r="F6" t="n">
-        <v>1186529</v>
+        <v>903</v>
       </c>
       <c r="G6" t="n">
-        <v>8.921930094532549</v>
+        <v>0.001588574926913999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E7" t="n">
-        <v>15816603</v>
+        <v>56860281</v>
       </c>
       <c r="F7" t="n">
-        <v>1331057</v>
+        <v>15978</v>
       </c>
       <c r="G7" t="n">
-        <v>9.188863160560178</v>
+        <v>0.02810835766602349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E8" t="n">
-        <v>17075727</v>
+        <v>56890372</v>
       </c>
       <c r="F8" t="n">
-        <v>1259124</v>
+        <v>30091</v>
       </c>
       <c r="G8" t="n">
-        <v>7.960773877930682</v>
+        <v>0.05292094845610329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E9" t="n">
-        <v>18110657</v>
+        <v>56906744</v>
       </c>
       <c r="F9" t="n">
-        <v>1034930</v>
+        <v>16372</v>
       </c>
       <c r="G9" t="n">
-        <v>6.060825404388348</v>
+        <v>0.02877815599449107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E10" t="n">
-        <v>18853437</v>
+        <v>56916317</v>
       </c>
       <c r="F10" t="n">
-        <v>742780</v>
+        <v>9573</v>
       </c>
       <c r="G10" t="n">
-        <v>4.101342099295469</v>
+        <v>0.0168222592387357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E11" t="n">
-        <v>19357126</v>
+        <v>56942108</v>
       </c>
       <c r="F11" t="n">
-        <v>503689</v>
+        <v>25791</v>
       </c>
       <c r="G11" t="n">
-        <v>2.671603061022765</v>
+        <v>0.04531389478346082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E12" t="n">
-        <v>19737765</v>
+        <v>56974100</v>
       </c>
       <c r="F12" t="n">
-        <v>380639</v>
+        <v>31992</v>
       </c>
       <c r="G12" t="n">
-        <v>1.966402450446414</v>
+        <v>0.05618337838844134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E13" t="n">
-        <v>20170844</v>
+        <v>57059007</v>
       </c>
       <c r="F13" t="n">
-        <v>433079</v>
+        <v>84907</v>
       </c>
       <c r="G13" t="n">
-        <v>2.19416433420907</v>
+        <v>0.1490273650658791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E14" t="n">
-        <v>20779953</v>
+        <v>57313203</v>
       </c>
       <c r="F14" t="n">
-        <v>609109</v>
+        <v>254196</v>
       </c>
       <c r="G14" t="n">
-        <v>3.019749694162521</v>
+        <v>0.4454967118513009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E15" t="n">
-        <v>21606988</v>
+        <v>57685327</v>
       </c>
       <c r="F15" t="n">
-        <v>827035</v>
+        <v>372124</v>
       </c>
       <c r="G15" t="n">
-        <v>3.979965690971476</v>
+        <v>0.6492814578867634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E16" t="n">
-        <v>22600770</v>
+        <v>57969484</v>
       </c>
       <c r="F16" t="n">
-        <v>993782</v>
+        <v>284157</v>
       </c>
       <c r="G16" t="n">
-        <v>4.599354616201023</v>
+        <v>0.4925984037500664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E17" t="n">
-        <v>23680871</v>
+        <v>58143979</v>
       </c>
       <c r="F17" t="n">
-        <v>1080101</v>
+        <v>174495</v>
       </c>
       <c r="G17" t="n">
-        <v>4.779045138727578</v>
+        <v>0.3010118220131197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E18" t="n">
-        <v>24726684</v>
+        <v>58438310</v>
       </c>
       <c r="F18" t="n">
-        <v>1045813</v>
+        <v>294331</v>
       </c>
       <c r="G18" t="n">
-        <v>4.416277593843576</v>
+        <v>0.5062106258672205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E19" t="n">
-        <v>25654277</v>
+        <v>58826731</v>
       </c>
       <c r="F19" t="n">
-        <v>927593</v>
+        <v>388421</v>
       </c>
       <c r="G19" t="n">
-        <v>3.751384536640656</v>
+        <v>0.6646684341145459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E20" t="n">
-        <v>26433049</v>
+        <v>59095365</v>
       </c>
       <c r="F20" t="n">
-        <v>778772</v>
+        <v>268634</v>
       </c>
       <c r="G20" t="n">
-        <v>3.035641971122405</v>
+        <v>0.4566529457501245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E21" t="n">
-        <v>27100536</v>
+        <v>59277417</v>
       </c>
       <c r="F21" t="n">
-        <v>667487</v>
+        <v>182052</v>
       </c>
       <c r="G21" t="n">
-        <v>2.525198663234041</v>
+        <v>0.3080647695466565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="E22" t="n">
-        <v>27722276</v>
-      </c>
-      <c r="F22" t="n">
-        <v>621740</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.294198166412653</v>
-      </c>
+        <v>8288735</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E23" t="n">
-        <v>24190638</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>8566770</v>
+      </c>
+      <c r="F23" t="n">
+        <v>278035</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.354371927682576</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E24" t="n">
-        <v>24669512</v>
+        <v>8860287</v>
       </c>
       <c r="F24" t="n">
-        <v>478874</v>
+        <v>293517</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97958400270386</v>
+        <v>3.426227154458439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E25" t="n">
-        <v>25134362</v>
+        <v>9168312</v>
       </c>
       <c r="F25" t="n">
-        <v>464850</v>
+        <v>308025</v>
       </c>
       <c r="G25" t="n">
-        <v>1.884309669360307</v>
+        <v>3.476467523004612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E26" t="n">
-        <v>25593376</v>
+        <v>9490288</v>
       </c>
       <c r="F26" t="n">
-        <v>459014</v>
+        <v>321976</v>
       </c>
       <c r="G26" t="n">
-        <v>1.826240904782073</v>
+        <v>3.511835112068606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E27" t="n">
-        <v>26020302</v>
+        <v>9826598</v>
       </c>
       <c r="F27" t="n">
-        <v>426926</v>
+        <v>336310</v>
       </c>
       <c r="G27" t="n">
-        <v>1.668111311301801</v>
+        <v>3.543728072319818</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E28" t="n">
-        <v>26428552</v>
+        <v>10178201</v>
       </c>
       <c r="F28" t="n">
-        <v>408250</v>
+        <v>351603</v>
       </c>
       <c r="G28" t="n">
-        <v>1.568967185699832</v>
+        <v>3.578074527929198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E29" t="n">
-        <v>26841234</v>
+        <v>10545716</v>
       </c>
       <c r="F29" t="n">
-        <v>412682</v>
+        <v>367515</v>
       </c>
       <c r="G29" t="n">
-        <v>1.561500607373412</v>
+        <v>3.610805092176905</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E30" t="n">
-        <v>27247899</v>
+        <v>10929918</v>
       </c>
       <c r="F30" t="n">
-        <v>406665</v>
+        <v>384202</v>
       </c>
       <c r="G30" t="n">
-        <v>1.515075648161335</v>
+        <v>3.643204501240116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E31" t="n">
-        <v>27660288</v>
+        <v>11331557</v>
       </c>
       <c r="F31" t="n">
-        <v>412389</v>
+        <v>401639</v>
       </c>
       <c r="G31" t="n">
-        <v>1.513470818428964</v>
+        <v>3.67467532693293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E32" t="n">
-        <v>28081620</v>
+        <v>11751365</v>
       </c>
       <c r="F32" t="n">
-        <v>421332</v>
+        <v>419808</v>
       </c>
       <c r="G32" t="n">
-        <v>1.523237935917376</v>
+        <v>3.704768903337818</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E33" t="n">
-        <v>28504847</v>
+        <v>12189983</v>
       </c>
       <c r="F33" t="n">
-        <v>423227</v>
+        <v>438618</v>
       </c>
       <c r="G33" t="n">
-        <v>1.507131711062248</v>
+        <v>3.732485545296238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E34" t="n">
-        <v>28948606</v>
+        <v>12647984</v>
       </c>
       <c r="F34" t="n">
-        <v>443759</v>
+        <v>458001</v>
       </c>
       <c r="G34" t="n">
-        <v>1.556784360217756</v>
+        <v>3.757191457937226</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E35" t="n">
-        <v>29393029</v>
+        <v>13125916</v>
       </c>
       <c r="F35" t="n">
-        <v>444423</v>
+        <v>477932</v>
       </c>
       <c r="G35" t="n">
-        <v>1.535213819967707</v>
+        <v>3.778720782695477</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E36" t="n">
-        <v>29820335</v>
+        <v>13624467</v>
       </c>
       <c r="F36" t="n">
-        <v>427306</v>
+        <v>498551</v>
       </c>
       <c r="G36" t="n">
-        <v>1.453766469593853</v>
+        <v>3.798218730029967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E37" t="n">
-        <v>30250175</v>
+        <v>14143971</v>
       </c>
       <c r="F37" t="n">
-        <v>429840</v>
+        <v>519504</v>
       </c>
       <c r="G37" t="n">
-        <v>1.441432498997752</v>
+        <v>3.81302255713929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E38" t="n">
-        <v>30697311</v>
+        <v>14685399</v>
       </c>
       <c r="F38" t="n">
-        <v>447136</v>
+        <v>541428</v>
       </c>
       <c r="G38" t="n">
-        <v>1.478126986042239</v>
+        <v>3.82797730566613</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E39" t="n">
-        <v>31189626</v>
+        <v>15250908</v>
       </c>
       <c r="F39" t="n">
-        <v>492315</v>
+        <v>565509</v>
       </c>
       <c r="G39" t="n">
-        <v>1.603772395569103</v>
+        <v>3.850824890763938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E40" t="n">
-        <v>31746604</v>
+        <v>15843133</v>
       </c>
       <c r="F40" t="n">
-        <v>556978</v>
+        <v>592225</v>
       </c>
       <c r="G40" t="n">
-        <v>1.785779669175902</v>
+        <v>3.883211412723764</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E41" t="n">
-        <v>32375210</v>
+        <v>16464025</v>
       </c>
       <c r="F41" t="n">
-        <v>628606</v>
+        <v>620892</v>
       </c>
       <c r="G41" t="n">
-        <v>1.980073207200372</v>
+        <v>3.918997587156525</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E42" t="n">
-        <v>33066727</v>
-      </c>
-      <c r="F42" t="n">
-        <v>691517</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.135945990775046</v>
-      </c>
+        <v>320780</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Small states</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="E43" t="n">
-        <v>33798838</v>
+        <v>329995</v>
       </c>
       <c r="F43" t="n">
-        <v>732111</v>
+        <v>9215</v>
       </c>
       <c r="G43" t="n">
-        <v>2.214041323170579</v>
+        <v>2.872685329509328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="E44" t="n">
-        <v>1084281155</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>339504</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9509</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.881558811497142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="E45" t="n">
-        <v>1108702403</v>
+        <v>349281</v>
       </c>
       <c r="F45" t="n">
-        <v>24421248</v>
+        <v>9777</v>
       </c>
       <c r="G45" t="n">
-        <v>2.252298482490911</v>
+        <v>2.879789339742689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="E46" t="n">
-        <v>1133495196</v>
+        <v>359281</v>
       </c>
       <c r="F46" t="n">
-        <v>24792793</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>2.236199085788404</v>
+        <v>2.863024327117714</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="E47" t="n">
-        <v>1158655617</v>
+        <v>369523</v>
       </c>
       <c r="F47" t="n">
-        <v>25160421</v>
+        <v>10242</v>
       </c>
       <c r="G47" t="n">
-        <v>2.219720126630342</v>
+        <v>2.850693468343724</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="E48" t="n">
-        <v>1184133314</v>
+        <v>379999</v>
       </c>
       <c r="F48" t="n">
-        <v>25477697</v>
+        <v>10476</v>
       </c>
       <c r="G48" t="n">
-        <v>2.198901608570036</v>
+        <v>2.83500621070949</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="E49" t="n">
-        <v>1209847786</v>
+        <v>390693</v>
       </c>
       <c r="F49" t="n">
-        <v>25714472</v>
+        <v>10694</v>
       </c>
       <c r="G49" t="n">
-        <v>2.171585892903938</v>
+        <v>2.814217932152463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="E50" t="n">
-        <v>1235693869</v>
+        <v>401586</v>
       </c>
       <c r="F50" t="n">
-        <v>25846083</v>
+        <v>10893</v>
       </c>
       <c r="G50" t="n">
-        <v>2.136308657922359</v>
+        <v>2.788122643610191</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="E51" t="n">
-        <v>1261587756</v>
+        <v>412660</v>
       </c>
       <c r="F51" t="n">
-        <v>25893887</v>
+        <v>11074</v>
       </c>
       <c r="G51" t="n">
-        <v>2.095493685742311</v>
+        <v>2.757566249819465</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E52" t="n">
-        <v>1287476190</v>
+        <v>423944</v>
       </c>
       <c r="F52" t="n">
-        <v>25888434</v>
+        <v>11284</v>
       </c>
       <c r="G52" t="n">
-        <v>2.052051779741593</v>
+        <v>2.734454514612517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E53" t="n">
-        <v>1313346377</v>
+        <v>435432</v>
       </c>
       <c r="F53" t="n">
-        <v>25870187</v>
+        <v>11488</v>
       </c>
       <c r="G53" t="n">
-        <v>2.00937207234877</v>
+        <v>2.70979185930218</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E54" t="n">
-        <v>1339202708</v>
+        <v>447017</v>
       </c>
       <c r="F54" t="n">
-        <v>25856331</v>
+        <v>11585</v>
       </c>
       <c r="G54" t="n">
-        <v>1.968736614560296</v>
+        <v>2.660576163442285</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E55" t="n">
-        <v>1365067928</v>
+        <v>458539</v>
       </c>
       <c r="F55" t="n">
-        <v>25865220</v>
+        <v>11522</v>
       </c>
       <c r="G55" t="n">
-        <v>1.931389463707678</v>
+        <v>2.577530608455603</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E56" t="n">
-        <v>1390946064</v>
+        <v>469918</v>
       </c>
       <c r="F56" t="n">
-        <v>25878136</v>
+        <v>11379</v>
       </c>
       <c r="G56" t="n">
-        <v>1.895739799404317</v>
+        <v>2.481577357651155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E57" t="n">
-        <v>1416822959</v>
+        <v>481078</v>
       </c>
       <c r="F57" t="n">
-        <v>25876895</v>
+        <v>11160</v>
       </c>
       <c r="G57" t="n">
-        <v>1.860380906904813</v>
+        <v>2.374882426295644</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E58" t="n">
-        <v>1442644058</v>
+        <v>492132</v>
       </c>
       <c r="F58" t="n">
-        <v>25821099</v>
+        <v>11054</v>
       </c>
       <c r="G58" t="n">
-        <v>1.82246475016361</v>
+        <v>2.297756289000952</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E59" t="n">
-        <v>1468324422</v>
+        <v>503360</v>
       </c>
       <c r="F59" t="n">
-        <v>25680364</v>
+        <v>11228</v>
       </c>
       <c r="G59" t="n">
-        <v>1.780090096208609</v>
+        <v>2.281501710923095</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E60" t="n">
-        <v>1493757846</v>
+        <v>515181</v>
       </c>
       <c r="F60" t="n">
-        <v>25433424</v>
+        <v>11821</v>
       </c>
       <c r="G60" t="n">
-        <v>1.732139275144462</v>
+        <v>2.348418626827709</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E61" t="n">
-        <v>1518861552</v>
+        <v>527861</v>
       </c>
       <c r="F61" t="n">
-        <v>25103706</v>
+        <v>12680</v>
       </c>
       <c r="G61" t="n">
-        <v>1.680574001149049</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>South Asia</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1543610696</v>
-      </c>
-      <c r="F62" t="n">
-        <v>24749144</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.629453584325113</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>South Asia</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1568003159</v>
-      </c>
-      <c r="F63" t="n">
-        <v>24392463</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.580221169962659</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>South Asia</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1592010819</v>
-      </c>
-      <c r="F64" t="n">
-        <v>24007660</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.531097680652049</v>
+        <v>2.461270893142409</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel/porownanie_krajow.xlsx
+++ b/output/excel/porownanie_krajow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1991</v>
+        <v>1965</v>
       </c>
       <c r="E2" t="n">
-        <v>56758521</v>
+        <v>11841920</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -498,1704 +498,4401 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1992</v>
+        <v>1966</v>
       </c>
       <c r="E3" t="n">
-        <v>56797087</v>
+        <v>12132559</v>
       </c>
       <c r="F3" t="n">
-        <v>38566</v>
+        <v>290639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06794750694789631</v>
+        <v>2.454323285413174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="E4" t="n">
-        <v>56831821</v>
+        <v>12385710</v>
       </c>
       <c r="F4" t="n">
-        <v>34734</v>
+        <v>253151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06115454477444437</v>
+        <v>2.08654250105027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1994</v>
+        <v>1968</v>
       </c>
       <c r="E5" t="n">
-        <v>56843400</v>
+        <v>12611426</v>
       </c>
       <c r="F5" t="n">
-        <v>11579</v>
+        <v>225716</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0203741491936249</v>
+        <v>1.822390480642611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1995</v>
+        <v>1969</v>
       </c>
       <c r="E6" t="n">
-        <v>56844303</v>
+        <v>12824606</v>
       </c>
       <c r="F6" t="n">
-        <v>903</v>
+        <v>213180</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001588574926913999</v>
+        <v>1.690371889745057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1996</v>
+        <v>1970</v>
       </c>
       <c r="E7" t="n">
-        <v>56860281</v>
+        <v>13036139</v>
       </c>
       <c r="F7" t="n">
-        <v>15978</v>
+        <v>211533</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02810835766602349</v>
+        <v>1.649430789530681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1997</v>
+        <v>1971</v>
       </c>
       <c r="E8" t="n">
-        <v>56890372</v>
+        <v>13250213</v>
       </c>
       <c r="F8" t="n">
-        <v>30091</v>
+        <v>214074</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05292094845610329</v>
+        <v>1.642158003991834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1998</v>
+        <v>1972</v>
       </c>
       <c r="E9" t="n">
-        <v>56906744</v>
+        <v>13463985</v>
       </c>
       <c r="F9" t="n">
-        <v>16372</v>
+        <v>213772</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02877815599449107</v>
+        <v>1.613347649581187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1999</v>
+        <v>1973</v>
       </c>
       <c r="E10" t="n">
-        <v>56916317</v>
+        <v>13673007</v>
       </c>
       <c r="F10" t="n">
-        <v>9573</v>
+        <v>209022</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0168222592387357</v>
+        <v>1.552452709951768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2000</v>
+        <v>1974</v>
       </c>
       <c r="E11" t="n">
-        <v>56942108</v>
+        <v>13869975</v>
       </c>
       <c r="F11" t="n">
-        <v>25791</v>
+        <v>196968</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04531389478346082</v>
+        <v>1.440560953417203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2001</v>
+        <v>1975</v>
       </c>
       <c r="E12" t="n">
-        <v>56974100</v>
+        <v>14050226</v>
       </c>
       <c r="F12" t="n">
-        <v>31992</v>
+        <v>180251</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05618337838844134</v>
+        <v>1.299576963909455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2002</v>
+        <v>1976</v>
       </c>
       <c r="E13" t="n">
-        <v>57059007</v>
+        <v>14212145</v>
       </c>
       <c r="F13" t="n">
-        <v>84907</v>
+        <v>161919</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1490273650658791</v>
+        <v>1.152429861270554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="E14" t="n">
-        <v>57313203</v>
+        <v>14359624</v>
       </c>
       <c r="F14" t="n">
-        <v>254196</v>
+        <v>147479</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454967118513009</v>
+        <v>1.037696983812086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2004</v>
+        <v>1978</v>
       </c>
       <c r="E15" t="n">
-        <v>57685327</v>
+        <v>14499952</v>
       </c>
       <c r="F15" t="n">
-        <v>372124</v>
+        <v>140328</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6492814578867634</v>
+        <v>0.9772400725812869</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="E16" t="n">
-        <v>57969484</v>
+        <v>14643133</v>
       </c>
       <c r="F16" t="n">
-        <v>284157</v>
+        <v>143181</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4925984037500664</v>
+        <v>0.9874584412417287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2006</v>
+        <v>1980</v>
       </c>
       <c r="E17" t="n">
-        <v>58143979</v>
+        <v>14796174</v>
       </c>
       <c r="F17" t="n">
-        <v>174495</v>
+        <v>153041</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3010118220131197</v>
+        <v>1.045138359393438</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="E18" t="n">
-        <v>58438310</v>
+        <v>14958908</v>
       </c>
       <c r="F18" t="n">
-        <v>294331</v>
+        <v>162734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5062106258672205</v>
+        <v>1.09983837713723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="E19" t="n">
-        <v>58826731</v>
+        <v>15128087</v>
       </c>
       <c r="F19" t="n">
-        <v>388421</v>
+        <v>169179</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6646684341145459</v>
+        <v>1.130958222351519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="E20" t="n">
-        <v>59095365</v>
+        <v>15303309</v>
       </c>
       <c r="F20" t="n">
-        <v>268634</v>
+        <v>175222</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4566529457501245</v>
+        <v>1.158256162857874</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2010</v>
+        <v>1984</v>
       </c>
       <c r="E21" t="n">
-        <v>59277417</v>
+        <v>15483419</v>
       </c>
       <c r="F21" t="n">
-        <v>182052</v>
+        <v>180110</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3080647695466565</v>
+        <v>1.176935001443158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E22" t="n">
-        <v>8288735</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>15665595</v>
+      </c>
+      <c r="F22" t="n">
+        <v>182176</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.176587677437402</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E23" t="n">
-        <v>8566770</v>
+        <v>15852525</v>
       </c>
       <c r="F23" t="n">
-        <v>278035</v>
+        <v>186930</v>
       </c>
       <c r="G23" t="n">
-        <v>3.354371927682576</v>
+        <v>1.193251836269216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="E24" t="n">
-        <v>8860287</v>
+        <v>16039251</v>
       </c>
       <c r="F24" t="n">
-        <v>293517</v>
+        <v>186726</v>
       </c>
       <c r="G24" t="n">
-        <v>3.426227154458439</v>
+        <v>1.177894373293853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="E25" t="n">
-        <v>9168312</v>
+        <v>16206002</v>
       </c>
       <c r="F25" t="n">
-        <v>308025</v>
+        <v>166751</v>
       </c>
       <c r="G25" t="n">
-        <v>3.476467523004612</v>
+        <v>1.039643310027372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E26" t="n">
-        <v>9490288</v>
+        <v>16249500</v>
       </c>
       <c r="F26" t="n">
-        <v>321976</v>
+        <v>43498</v>
       </c>
       <c r="G26" t="n">
-        <v>3.511835112068606</v>
+        <v>0.2684067298029502</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="E27" t="n">
-        <v>9826598</v>
+        <v>16348000</v>
       </c>
       <c r="F27" t="n">
-        <v>336310</v>
+        <v>98500</v>
       </c>
       <c r="G27" t="n">
-        <v>3.543728072319818</v>
+        <v>0.6061724976153204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E28" t="n">
-        <v>10178201</v>
+        <v>16450500</v>
       </c>
       <c r="F28" t="n">
-        <v>351603</v>
+        <v>102500</v>
       </c>
       <c r="G28" t="n">
-        <v>3.578074527929198</v>
+        <v>0.6269880107658388</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="E29" t="n">
-        <v>10545716</v>
+        <v>16439095</v>
       </c>
       <c r="F29" t="n">
-        <v>367515</v>
+        <v>-11405</v>
       </c>
       <c r="G29" t="n">
-        <v>3.610805092176905</v>
+        <v>-0.06932919972036933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E30" t="n">
-        <v>10929918</v>
+        <v>16330419</v>
       </c>
       <c r="F30" t="n">
-        <v>384202</v>
+        <v>-108676</v>
       </c>
       <c r="G30" t="n">
-        <v>3.643204501240116</v>
+        <v>-0.6610826204240583</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E31" t="n">
-        <v>11331557</v>
+        <v>16095199</v>
       </c>
       <c r="F31" t="n">
-        <v>401639</v>
+        <v>-235220</v>
       </c>
       <c r="G31" t="n">
-        <v>3.67467532693293</v>
+        <v>-1.440379453827856</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E32" t="n">
-        <v>11751365</v>
+        <v>15815626</v>
       </c>
       <c r="F32" t="n">
-        <v>419808</v>
+        <v>-279573</v>
       </c>
       <c r="G32" t="n">
-        <v>3.704768903337818</v>
+        <v>-1.736996230987886</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E33" t="n">
-        <v>12189983</v>
+        <v>15577894</v>
       </c>
       <c r="F33" t="n">
-        <v>438618</v>
+        <v>-237732</v>
       </c>
       <c r="G33" t="n">
-        <v>3.732485545296238</v>
+        <v>-1.503146318710369</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E34" t="n">
-        <v>12647984</v>
+        <v>15333703</v>
       </c>
       <c r="F34" t="n">
-        <v>458001</v>
+        <v>-244191</v>
       </c>
       <c r="G34" t="n">
-        <v>3.757191457937226</v>
+        <v>-1.567548219290749</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E35" t="n">
-        <v>13125916</v>
+        <v>15071300</v>
       </c>
       <c r="F35" t="n">
-        <v>477932</v>
+        <v>-262403</v>
       </c>
       <c r="G35" t="n">
-        <v>3.778720782695477</v>
+        <v>-1.711282656250745</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E36" t="n">
-        <v>13624467</v>
+        <v>14928426</v>
       </c>
       <c r="F36" t="n">
-        <v>498551</v>
+        <v>-142874</v>
       </c>
       <c r="G36" t="n">
-        <v>3.798218730029967</v>
+        <v>-0.9479872340143136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E37" t="n">
-        <v>14143971</v>
+        <v>14883626</v>
       </c>
       <c r="F37" t="n">
-        <v>519504</v>
+        <v>-44800</v>
       </c>
       <c r="G37" t="n">
-        <v>3.81302255713929</v>
+        <v>-0.3000986172286391</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E38" t="n">
-        <v>14685399</v>
+        <v>14858335</v>
       </c>
       <c r="F38" t="n">
-        <v>541428</v>
+        <v>-25291</v>
       </c>
       <c r="G38" t="n">
-        <v>3.82797730566613</v>
+        <v>-0.1699249900528277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E39" t="n">
-        <v>15250908</v>
+        <v>14858948</v>
       </c>
       <c r="F39" t="n">
-        <v>565509</v>
+        <v>613</v>
       </c>
       <c r="G39" t="n">
-        <v>3.850824890763938</v>
+        <v>0.004125630496276678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E40" t="n">
-        <v>15843133</v>
+        <v>14909018</v>
       </c>
       <c r="F40" t="n">
-        <v>592225</v>
+        <v>50070</v>
       </c>
       <c r="G40" t="n">
-        <v>3.883211412723764</v>
+        <v>0.3369686736907518</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E41" t="n">
-        <v>16464025</v>
+        <v>15012985</v>
       </c>
       <c r="F41" t="n">
-        <v>620892</v>
+        <v>103967</v>
       </c>
       <c r="G41" t="n">
-        <v>3.918997587156525</v>
+        <v>0.697343044323917</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="E42" t="n">
-        <v>320780</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>15147029</v>
+      </c>
+      <c r="F42" t="n">
+        <v>134044</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.8928537529345526</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="E43" t="n">
-        <v>329995</v>
+        <v>15308084</v>
       </c>
       <c r="F43" t="n">
-        <v>9215</v>
+        <v>161055</v>
       </c>
       <c r="G43" t="n">
-        <v>2.872685329509328</v>
+        <v>1.0632778216771</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="E44" t="n">
-        <v>339504</v>
+        <v>15484192</v>
       </c>
       <c r="F44" t="n">
-        <v>9509</v>
+        <v>176108</v>
       </c>
       <c r="G44" t="n">
-        <v>2.881558811497142</v>
+        <v>1.150424834355501</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1994</v>
+        <v>2008</v>
       </c>
       <c r="E45" t="n">
-        <v>349281</v>
+        <v>15674000</v>
       </c>
       <c r="F45" t="n">
-        <v>9777</v>
+        <v>189808</v>
       </c>
       <c r="G45" t="n">
-        <v>2.879789339742689</v>
+        <v>1.225817918041838</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="E46" t="n">
-        <v>359281</v>
+        <v>16092822</v>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>418822</v>
       </c>
       <c r="G46" t="n">
-        <v>2.863024327117714</v>
+        <v>2.672081153502615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E47" t="n">
-        <v>369523</v>
+        <v>16321872</v>
       </c>
       <c r="F47" t="n">
-        <v>10242</v>
+        <v>229050</v>
       </c>
       <c r="G47" t="n">
-        <v>2.850693468343724</v>
+        <v>1.423305371798689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E48" t="n">
-        <v>379999</v>
+        <v>16557201</v>
       </c>
       <c r="F48" t="n">
-        <v>10476</v>
+        <v>235329</v>
       </c>
       <c r="G48" t="n">
-        <v>2.83500621070949</v>
+        <v>1.44180152864819</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1998</v>
+        <v>2012</v>
       </c>
       <c r="E49" t="n">
-        <v>390693</v>
+        <v>16792089</v>
       </c>
       <c r="F49" t="n">
-        <v>10694</v>
+        <v>234888</v>
       </c>
       <c r="G49" t="n">
-        <v>2.814217932152463</v>
+        <v>1.418645579044431</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="E50" t="n">
-        <v>401586</v>
+        <v>17035550</v>
       </c>
       <c r="F50" t="n">
-        <v>10893</v>
+        <v>243461</v>
       </c>
       <c r="G50" t="n">
-        <v>2.788122643610191</v>
+        <v>1.449855345573736</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="E51" t="n">
-        <v>412660</v>
+        <v>17288285</v>
       </c>
       <c r="F51" t="n">
-        <v>11074</v>
+        <v>252735</v>
       </c>
       <c r="G51" t="n">
-        <v>2.757566249819465</v>
+        <v>1.483574055431136</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="E52" t="n">
-        <v>423944</v>
+        <v>17542806</v>
       </c>
       <c r="F52" t="n">
-        <v>11284</v>
+        <v>254521</v>
       </c>
       <c r="G52" t="n">
-        <v>2.734454514612517</v>
+        <v>1.472216590598774</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2002</v>
+        <v>1965</v>
       </c>
       <c r="E53" t="n">
-        <v>435432</v>
-      </c>
-      <c r="F53" t="n">
-        <v>11488</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.70979185930218</v>
-      </c>
+        <v>2971450</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2003</v>
+        <v>1966</v>
       </c>
       <c r="E54" t="n">
-        <v>447017</v>
+        <v>3008050</v>
       </c>
       <c r="F54" t="n">
-        <v>11585</v>
+        <v>36600</v>
       </c>
       <c r="G54" t="n">
-        <v>2.660576163442285</v>
+        <v>1.231721886621018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2004</v>
+        <v>1967</v>
       </c>
       <c r="E55" t="n">
-        <v>458539</v>
+        <v>3044400</v>
       </c>
       <c r="F55" t="n">
-        <v>11522</v>
+        <v>36350</v>
       </c>
       <c r="G55" t="n">
-        <v>2.577530608455603</v>
+        <v>1.208424062100022</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="E56" t="n">
-        <v>469918</v>
+        <v>3078850</v>
       </c>
       <c r="F56" t="n">
-        <v>11379</v>
+        <v>34450</v>
       </c>
       <c r="G56" t="n">
-        <v>2.481577357651155</v>
+        <v>1.131585862567341</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="E57" t="n">
-        <v>481078</v>
+        <v>3107321</v>
       </c>
       <c r="F57" t="n">
-        <v>11160</v>
+        <v>28471</v>
       </c>
       <c r="G57" t="n">
-        <v>2.374882426295644</v>
+        <v>0.9247283888464741</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="E58" t="n">
-        <v>492132</v>
+        <v>3139689</v>
       </c>
       <c r="F58" t="n">
-        <v>11054</v>
+        <v>32368</v>
       </c>
       <c r="G58" t="n">
-        <v>2.297756289000952</v>
+        <v>1.041669013275426</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2008</v>
+        <v>1971</v>
       </c>
       <c r="E59" t="n">
-        <v>503360</v>
+        <v>3179041</v>
       </c>
       <c r="F59" t="n">
-        <v>11228</v>
+        <v>39352</v>
       </c>
       <c r="G59" t="n">
-        <v>2.281501710923095</v>
+        <v>1.25337254740836</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2009</v>
+        <v>1972</v>
       </c>
       <c r="E60" t="n">
-        <v>515181</v>
+        <v>3213622</v>
       </c>
       <c r="F60" t="n">
-        <v>11821</v>
+        <v>34581</v>
       </c>
       <c r="G60" t="n">
-        <v>2.348418626827709</v>
+        <v>1.087780874798416</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="D61" t="n">
+        <v>1973</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3244438</v>
+      </c>
+      <c r="F61" t="n">
+        <v>30816</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9589180059135671</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3273894</v>
+      </c>
+      <c r="F62" t="n">
+        <v>29456</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9078922143064494</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3301652</v>
+      </c>
+      <c r="F63" t="n">
+        <v>27758</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8478588494312822</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3328664</v>
+      </c>
+      <c r="F64" t="n">
+        <v>27012</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.818135890760141</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3355036</v>
+      </c>
+      <c r="F65" t="n">
+        <v>26372</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7922698115520266</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3379514</v>
+      </c>
+      <c r="F66" t="n">
+        <v>24478</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7295897868159873</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3397842</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18328</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.5423265002009181</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3413202</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15360</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4520516257083163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3432947</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19745</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.5784890551452815</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3457179</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24232</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.7058658348060742</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3485192</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28013</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8102849172692439</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3514205</v>
+      </c>
+      <c r="F72" t="n">
+        <v>29013</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.8324648971993476</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3544543</v>
+      </c>
+      <c r="F73" t="n">
+        <v>30338</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8632962505033204</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3578914</v>
+      </c>
+      <c r="F74" t="n">
+        <v>34371</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9696877707507046</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3616367</v>
+      </c>
+      <c r="F75" t="n">
+        <v>37453</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.046490639339193</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3655049</v>
+      </c>
+      <c r="F76" t="n">
+        <v>38682</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.069637014163671</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3684255</v>
+      </c>
+      <c r="F77" t="n">
+        <v>29206</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7990590550222443</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3697838</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13583</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3686769781136245</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3704134</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6296</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1702616501858545</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3700114</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-4020</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.1085273912876827</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3682613</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-17501</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.4729854269354905</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3657144</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-25469</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.6916013167824087</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3629102</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-28042</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.7667731978833747</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3601613</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-27489</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.7574601099666012</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3575137</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-26476</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.7351150720524391</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3549331</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-25806</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.7218184925500748</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3524238</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-25093</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.7069783009812314</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3499536</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-24702</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.700917474926499</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3470818</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-28718</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.8206230768879053</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3443067</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-27751</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.7995521516829696</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3415213</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-27854</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.808988033053093</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3377075</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-38138</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.116709265278626</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3322528</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-54547</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.615214349696115</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3269909</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-52619</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.583703734024211</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3231294</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-38615</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.180919713667872</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3198231</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-33063</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.023212372504634</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3162916</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-35315</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.104204167866552</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>2010</v>
       </c>
-      <c r="E61" t="n">
-        <v>527861</v>
-      </c>
-      <c r="F61" t="n">
-        <v>12680</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2.461270893142409</v>
+      <c r="E98" t="n">
+        <v>3097282</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-65634</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2.075110436065963</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3028115</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-69167</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2.233151518008369</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2987773</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-40342</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1.332247949632037</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2957689</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-30084</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1.006903804271608</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2932367</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-25322</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.8561413995859635</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2904910</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-27457</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.9363425519384183</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1886900</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1966</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1934400</v>
+      </c>
+      <c r="F105" t="n">
+        <v>47500</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.517356510678881</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1977600</v>
+      </c>
+      <c r="F106" t="n">
+        <v>43200</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.233250620347405</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2012000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34400</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.739482200647258</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1969</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2042500</v>
+      </c>
+      <c r="F108" t="n">
+        <v>30500</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.515904572564608</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2074507</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32007</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.567050183598528</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2112900</v>
+      </c>
+      <c r="F110" t="n">
+        <v>38393</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.85070476985616</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1972</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2152400</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39500</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.869468503005356</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1973</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2193000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>40600</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.886266493216882</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2229800</v>
+      </c>
+      <c r="F113" t="n">
+        <v>36800</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.678066575467407</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2262600</v>
+      </c>
+      <c r="F114" t="n">
+        <v>32800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.470983944748405</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2293300</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30700</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.356846106249443</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2325300</v>
+      </c>
+      <c r="F116" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.395369118737189</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1978</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2353600</v>
+      </c>
+      <c r="F117" t="n">
+        <v>28300</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.217047262718784</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2383500</v>
+      </c>
+      <c r="F118" t="n">
+        <v>29900</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.27039428959892</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2413945</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30445</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.277323264107411</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2532835</v>
+      </c>
+      <c r="F120" t="n">
+        <v>118890</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4.925132925563758</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2646466</v>
+      </c>
+      <c r="F121" t="n">
+        <v>113631</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4.486316716248795</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2681061</v>
+      </c>
+      <c r="F122" t="n">
+        <v>34595</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.30721498027937</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2732221</v>
+      </c>
+      <c r="F123" t="n">
+        <v>51160</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.908199776133412</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2735957</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3736</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1367385727581993</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2733373</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2584</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.09444592879200853</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2774789</v>
+      </c>
+      <c r="F126" t="n">
+        <v>41416</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.515197523353007</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2846108</v>
+      </c>
+      <c r="F127" t="n">
+        <v>71319</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.570249485636555</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2930901</v>
+      </c>
+      <c r="F128" t="n">
+        <v>84793</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.979261503779895</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3047132</v>
+      </c>
+      <c r="F129" t="n">
+        <v>116231</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3.965708838340154</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3135083</v>
+      </c>
+      <c r="F130" t="n">
+        <v>87951</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.88635346286279</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3230698</v>
+      </c>
+      <c r="F131" t="n">
+        <v>95615</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3.049839509831154</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3313471</v>
+      </c>
+      <c r="F132" t="n">
+        <v>82773</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.562077916289307</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3419048</v>
+      </c>
+      <c r="F133" t="n">
+        <v>105577</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3.186296183066029</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3524506</v>
+      </c>
+      <c r="F134" t="n">
+        <v>105458</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3.084425840175387</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3670704</v>
+      </c>
+      <c r="F135" t="n">
+        <v>146198</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.148042307205602</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3796038</v>
+      </c>
+      <c r="F136" t="n">
+        <v>125334</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.414440390726137</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3927213</v>
+      </c>
+      <c r="F137" t="n">
+        <v>131175</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3.455576577473662</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3958723</v>
+      </c>
+      <c r="F138" t="n">
+        <v>31510</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8023501653717346</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4027887</v>
+      </c>
+      <c r="F139" t="n">
+        <v>69164</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.747129061568597</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4138012</v>
+      </c>
+      <c r="F140" t="n">
+        <v>110125</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.734063790766728</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4175950</v>
+      </c>
+      <c r="F141" t="n">
+        <v>37938</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9168170609461734</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4114826</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-61124</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1.463714843329067</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4166664</v>
+      </c>
+      <c r="F143" t="n">
+        <v>51838</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.259785954497228</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4265762</v>
+      </c>
+      <c r="F144" t="n">
+        <v>99098</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2.378353522146259</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4401365</v>
+      </c>
+      <c r="F145" t="n">
+        <v>135603</v>
+      </c>
+      <c r="G145" t="n">
+        <v>3.17886933213809</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4588599</v>
+      </c>
+      <c r="F146" t="n">
+        <v>187234</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4.253998475472942</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4839396</v>
+      </c>
+      <c r="F147" t="n">
+        <v>250797</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.46565520325486</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4987573</v>
+      </c>
+      <c r="F148" t="n">
+        <v>148177</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.061890368136844</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5076732</v>
+      </c>
+      <c r="F149" t="n">
+        <v>89159</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.787622958100066</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5183688</v>
+      </c>
+      <c r="F150" t="n">
+        <v>106956</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.10678838276277</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5312437</v>
+      </c>
+      <c r="F151" t="n">
+        <v>128749</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2.48373358890428</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5399162</v>
+      </c>
+      <c r="F152" t="n">
+        <v>86725</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.632489947645488</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5469724</v>
+      </c>
+      <c r="F153" t="n">
+        <v>70562</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.306906516233441</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5535002</v>
+      </c>
+      <c r="F154" t="n">
+        <v>65278</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.193442301659098</v>
       </c>
     </row>
   </sheetData>
